--- a/Check.xlsx
+++ b/Check.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Низкий</t>
   </si>
   <si>
-    <t>Авторизация пользователя</t>
-  </si>
-  <si>
     <t>Установка/удаление приложения</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Ввод логина/пароля незарегистрированного пользователя</t>
   </si>
   <si>
-    <t>Валидация полей</t>
-  </si>
-  <si>
     <t>Страница Новостей</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>Переход на страницу Новости из Меню</t>
   </si>
   <si>
-    <t>Переход на страницу Оприложении из Меню</t>
-  </si>
-  <si>
     <t>Панель управления Новостей / Фильтр новостей</t>
   </si>
   <si>
@@ -198,9 +189,6 @@
     <t>Заполнение полей в окне Добавление новости</t>
   </si>
   <si>
-    <t>Заполнение категории новости</t>
-  </si>
-  <si>
     <t>Заполнение Времени публикации</t>
   </si>
   <si>
@@ -214,6 +202,30 @@
   </si>
   <si>
     <t>Выход из учетной записи пользователя</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Пройден</t>
+  </si>
+  <si>
+    <t>Не пройден</t>
+  </si>
+  <si>
+    <t>Переход на страницу О приложении из Меню</t>
+  </si>
+  <si>
+    <t>Заполнение Заголовка новости</t>
+  </si>
+  <si>
+    <t>Заполнение Категории новости</t>
+  </si>
+  <si>
+    <t>Заполнение Описания новости</t>
+  </si>
+  <si>
+    <t>Появление сообщений об ошибке при создании новости без заполнения полей</t>
   </si>
 </sst>
 </file>
@@ -341,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,6 +389,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -384,7 +402,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -398,6 +416,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -679,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D2" sqref="D2:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -694,7 +716,7 @@
     <col min="5" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,448 +726,605 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="D1" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="D4" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
       <c r="B5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
       <c r="B6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="D6" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
       <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8" t="s">
+      <c r="C19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
       <c r="B21" s="8" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>51</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
       <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="D22" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="B23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>50</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
       <c r="B24" s="8" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="D24" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
       <c r="B25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="B26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="C38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="8" t="s">
+      <c r="C41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>3</v>
+      <c r="C47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
